--- a/src/evolution/stackext/stack_cmd.xlsx
+++ b/src/evolution/stackext/stack_cmd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Github\ViktorasGolubevas\desktop-tutorial\src\evolution\stackext\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A6011-60FA-4C3F-8352-B54A7B076FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675BB03E-0684-40B1-B5BA-F27B5BA9BF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{857AF9C4-9B63-4985-BB72-770C63C2FF3F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>gcc 02_n_user.c -o 02_n_use_stack</t>
   </si>
@@ -96,19 +96,37 @@
   </si>
   <si>
     <t>gcc 06_stack.c 06_z_user.c -o 06_z_use_stack</t>
+  </si>
+  <si>
+    <t>gcc 07_stack.c 07_user.c -o 07_use_stack</t>
+  </si>
+  <si>
+    <t>gcc 07_n_stack.c 07_ny_user.c -o 07_ny_use_stack</t>
+  </si>
+  <si>
+    <t>gcc 07_n_stack.c 07_nx_user.c -o 07_nx_use_stack</t>
+  </si>
+  <si>
+    <t>gcc 07_stack.c 07_zx_user.c -o 07_zx_use_stack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Mono"/>
       <family val="2"/>
       <charset val="186"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,8 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9327A97-40AC-4BE6-9658-FB84D0A3DCA6}">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,6 +587,26 @@
         <v>19</v>
       </c>
     </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/evolution/stackext/stack_cmd.xlsx
+++ b/src/evolution/stackext/stack_cmd.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29705"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Github\ViktorasGolubevas\desktop-tutorial\src\evolution\stackext\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675BB03E-0684-40B1-B5BA-F27B5BA9BF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7DE153-5E64-4A82-B1CA-ECD63A21B4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{857AF9C4-9B63-4985-BB72-770C63C2FF3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{857AF9C4-9B63-4985-BB72-770C63C2FF3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>gcc 02_n_user.c -o 02_n_use_stack</t>
   </si>
@@ -68,9 +69,6 @@
     <t>03_nx_stack.c neįtraukia savo sąsajos? Kodėl verta įtraukti.</t>
   </si>
   <si>
-    <t>Kokia extern, define praktika?</t>
-  </si>
-  <si>
     <t>gcc 05_nx_usestack.c -o 05_nx_usestack</t>
   </si>
   <si>
@@ -108,6 +106,129 @@
   </si>
   <si>
     <t>gcc 07_stack.c 07_zx_user.c -o 07_zx_use_stack</t>
+  </si>
+  <si>
+    <t>Stekas - programa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stekas - modulis </t>
+  </si>
+  <si>
+    <t>Naivus, nelankstus sprendimas</t>
+  </si>
+  <si>
+    <t>nesikompiliuoja [nx_user]</t>
+  </si>
+  <si>
+    <t>Nemodulinė dekompozicija</t>
+  </si>
+  <si>
+    <t>Stekas - failas projekte</t>
+  </si>
+  <si>
+    <t>Failas - kompiliavimo vienetas</t>
+  </si>
+  <si>
+    <t>nesilink'ina [multiple definition of `stack']</t>
+  </si>
+  <si>
+    <t>"pseudo" projektas</t>
+  </si>
+  <si>
+    <t>Stekas - failas (daugiafailiniame projekte)</t>
+  </si>
+  <si>
+    <t>Stekas - modulis (projekte)</t>
+  </si>
+  <si>
+    <t>nesilink'ina [undefined reference to `stack']</t>
+  </si>
+  <si>
+    <t>Neformalus sprendimo pavadinimas</t>
+  </si>
+  <si>
+    <t>Koncepcijos/terminai</t>
+  </si>
+  <si>
+    <t>Verdiktas/pastabos</t>
+  </si>
+  <si>
+    <t>Neteisingas aprašo/apibrėžimo suvokimas/dekomponavimas</t>
+  </si>
+  <si>
+    <t>Visai gerai, bet "atvira"</t>
+  </si>
+  <si>
+    <t>"Ataka" pavyko</t>
+  </si>
+  <si>
+    <t>Stekas - modulis su paslėpta realizacija</t>
+  </si>
+  <si>
+    <t>"Ataka" nepavyko</t>
+  </si>
+  <si>
+    <t>Informacijos slėpimas (information hiding) ~ (ne visiai) inkapsuliacija</t>
+  </si>
+  <si>
+    <t>Modulis (loginiame kontekste) = interfeisas/sąsaja+realizacija</t>
+  </si>
+  <si>
+    <t>Modulis (fiziniame C lygyje/kontekste) = antaštiniai vs išeities failai (aprašai vs apibrėžimai, declarations vs definitions)</t>
+  </si>
+  <si>
+    <t>Kokia extern, define panaudojimo praktika?</t>
+  </si>
+  <si>
+    <t>Viskas OK, bet tik 1 stekas!</t>
+  </si>
+  <si>
+    <t>Stekas-tipas</t>
+  </si>
+  <si>
+    <t>Vartotojo apibrėžiamas (duomenų) tipas - User Defined Type</t>
+  </si>
+  <si>
+    <t>Internal linkage su 'static'</t>
+  </si>
+  <si>
+    <t>cmd</t>
+  </si>
+  <si>
+    <t>nesikompiliuoja</t>
+  </si>
+  <si>
+    <t>Tipo nariai negali būti 'static'</t>
+  </si>
+  <si>
+    <t>vykdymo klaida - funkcijų parametrai "by value"</t>
+  </si>
+  <si>
+    <t>Funkcijos - išorinės tipo atžvilgiu.</t>
+  </si>
+  <si>
+    <t>Visas OK, bet reikia į modulį</t>
+  </si>
+  <si>
+    <t>Stekas-tipas modulyje</t>
+  </si>
+  <si>
+    <t>Stekas-tipas modulyje su paslėpta realizacija</t>
+  </si>
+  <si>
+    <t>Forward declaration</t>
+  </si>
+  <si>
+    <t>gcc 077_stack.c 077_user.c -o 077_use_stack</t>
+  </si>
+  <si>
+    <t>nesikompiliuoja [invalid use of undefined type 'struct Stack']</t>
+  </si>
+  <si>
+    <t>Klaidos</t>
+  </si>
+  <si>
+    <t>Panaudota technika (koncepcija)</t>
   </si>
 </sst>
 </file>
@@ -486,125 +607,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9327A97-40AC-4BE6-9658-FB84D0A3DCA6}">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="50.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="7" width="26.1796875" customWidth="1"/>
+    <col min="8" max="8" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>22</v>
       </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94BDBE9-7E10-46CC-A9FE-5D426465C7B8}">
+  <dimension ref="B2:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B1:G1)</f>
+        <v>cmd|Neformalus sprendimo pavadinimas|Koncepcijos/terminai|Panaudota technika (koncepcija)|Verdiktas/pastabos|Klaidos</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B2:G2)</f>
+        <v>gcc 01_n_usestack.c -o 01_n_usestack|Stekas - programa|||Naivus, nelankstus sprendimas|</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B3:G3)</f>
+        <v>gcc 02_n_stack.c 02_nx_user.c -o 02_nx_use_stack|Stekas - failas (daugiafailiniame projekte)|Failas - kompiliavimo vienetas||Nemodulinė dekompozicija|nesikompiliuoja [nx_user]</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B4:G4)</f>
+        <v>gcc 02_n_user.c -o 02_n_use_stack|Stekas - failas projekte|"pseudo" projektas|||</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B5:G5)</f>
+        <v>gcc 03_nx_stack.c 03_nx_user.c -o 03_nx_use_stack|Stekas - modulis (projekte)|Modulis (fiziniame C lygyje/kontekste) = antaštiniai vs išeities failai (aprašai vs apibrėžimai, declarations vs definitions)||Neteisingas aprašo/apibrėžimo suvokimas/dekomponavimas|nesilink'ina [multiple definition of `stack']</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B6:G6)</f>
+        <v>gcc 03_ny_stack.c 03_ny_user.c -o 03_ny_use_stack|Stekas - modulis |Modulis (loginiame kontekste) = interfeisas/sąsaja+realizacija||Neteisingas aprašo/apibrėžimo suvokimas/dekomponavimas|nesilink'ina [undefined reference to `stack']</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B7:G7)</f>
+        <v>gcc 03_stack.c 03_user.c -o 03_use_stack|Stekas - modulis |||Visai gerai, bet "atvira"|</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B8:G8)</f>
+        <v>gcc 03_stack.c 03_z_user.c -o 03_z_use_stack|Stekas - modulis |||"Ataka" pavyko|</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B9:G9)</f>
+        <v>gcc 04_stack.c 04_zx_user.c -o 04_zx_use_stack|Stekas - modulis su paslėpta realizacija|Informacijos slėpimas (information hiding) ~ (ne visiai) inkapsuliacija||"Ataka" nepavyko|nesilink'ina [undefined reference to `stack']</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B10:G10)</f>
+        <v>gcc 04_stack.c 04_user.c -o 04_use_stack|Stekas - modulis su paslėpta realizacija|Internal linkage su 'static'||Viskas OK, bet tik 1 stekas!|</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B11:G11)</f>
+        <v>gcc 05_nx_usestack.c -o 05_nx_usestack|Stekas-tipas|Vartotojo apibrėžiamas (duomenų) tipas - User Defined Type||Tipo nariai negali būti 'static'|nesikompiliuoja</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B12:G12)</f>
+        <v>gcc 05_ny_usestack.c -o 05_ny_usestack|Stekas-tipas|Funkcijos - išorinės tipo atžvilgiu.|||vykdymo klaida - funkcijų parametrai "by value"</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B13:G13)</f>
+        <v>gcc 05_n_usestack.c -o 05_n_usestack|Stekas-tipas|||Visas OK, bet reikia į modulį|</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B14:G14)</f>
+        <v>gcc 06_stack.c 06_user.c -o 06_use_stack|Stekas-tipas modulyje||||</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B15:G15)</f>
+        <v>gcc 06_stack.c 06_z_user.c -o 06_z_use_stack|Stekas-tipas modulyje|||"Ataka" pavyko|</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>21</v>
+      <c r="B17" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B16:G16)</f>
+        <v>gcc 07_n_stack.c 07_nx_user.c -o 07_nx_use_stack|Stekas-tipas modulyje su paslėpta realizacija|Forward declaration|||nesikompiliuoja</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>20</v>
+      <c r="B18" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B17:G17)</f>
+        <v>gcc 07_n_stack.c 07_ny_user.c -o 07_ny_use_stack|Stekas-tipas modulyje su paslėpta realizacija||||nesikompiliuoja</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>23</v>
+      <c r="B19" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B18:G18)</f>
+        <v>gcc 07_stack.c 07_user.c -o 07_use_stack|Stekas-tipas modulyje su paslėpta realizacija||||</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B19:G19)</f>
+        <v>gcc 07_stack.c 07_zx_user.c -o 07_zx_use_stack|Stekas-tipas modulyje su paslėpta realizacija|||"Ataka" nepavyko|nesikompiliuoja [invalid use of undefined type 'struct Stack']</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="str">
+        <f>+_xlfn.TEXTJOIN("|",FALSE,Sheet1!B20:G20)</f>
+        <v>gcc 077_stack.c 077_user.c -o 077_use_stack|Stekas-tipas modulyje su paslėpta realizacija||||</v>
       </c>
     </row>
   </sheetData>
